--- a/biology/Botanique/Allée_Éveline-Garnier/Allée_Éveline-Garnier.xlsx
+++ b/biology/Botanique/Allée_Éveline-Garnier/Allée_Éveline-Garnier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>All%C3%A9e_%C3%89veline-Garnier</t>
+          <t>Allée_Éveline-Garnier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'allée Éveline-Garnier est une allée piétonne située dans le 2e arrondissement de Paris, dans le quartier Vivienne.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>All%C3%A9e_%C3%89veline-Garnier</t>
+          <t>Allée_Éveline-Garnier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'allée est dans le square Louvois, espace vert central du quartier encadré par quatre voies :
 au nord : la rue de Louvois ;
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>All%C3%A9e_%C3%89veline-Garnier</t>
+          <t>Allée_Éveline-Garnier</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,9 +562,11 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'allée a été nommée en hommage à Éveline Garnier, héroïne de la Libération de Paris[1]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'allée a été nommée en hommage à Éveline Garnier, héroïne de la Libération de Paris. 
 </t>
         </is>
       </c>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>All%C3%A9e_%C3%89veline-Garnier</t>
+          <t>Allée_Éveline-Garnier</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,9 +595,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les allées du square Louvois sont nommées en mémoire du couple de résistantes Andrée Jacob et Éveline Garnier, inaugurées à l'occasion du 75e anniversaire de la Libération de Paris en août 2019[2]. Andrée Jacob et Éveline Garnier ont participé au sauvetage de nombreuses familles juives pendant la Seconde Guerre mondiale[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les allées du square Louvois sont nommées en mémoire du couple de résistantes Andrée Jacob et Éveline Garnier, inaugurées à l'occasion du 75e anniversaire de la Libération de Paris en août 2019. Andrée Jacob et Éveline Garnier ont participé au sauvetage de nombreuses familles juives pendant la Seconde Guerre mondiale.
 </t>
         </is>
       </c>
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>All%C3%A9e_%C3%89veline-Garnier</t>
+          <t>Allée_Éveline-Garnier</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,10 +628,12 @@
           <t>Bâtiments remarquables et lieux de mémoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'allée jouxte la fontaine Louvois composée de sculptures allégoriques qui représentent quatre grands fleuves et rivières français : la Seine, la Garonne, la Loire, et la Saône.
-Dans l'enceinte du square a été dressée la stèle de l'Association pour la mémoire des enfants juifs déportés constituée d'une plaque de verre commémorative qui rappelle le souvenir de dix enfants en bas âge du 2e arrondissement arrêtés par les nazis et envoyés à la mort. Parmi eux, trois enfants d'une même famille[4].
+Dans l'enceinte du square a été dressée la stèle de l'Association pour la mémoire des enfants juifs déportés constituée d'une plaque de verre commémorative qui rappelle le souvenir de dix enfants en bas âge du 2e arrondissement arrêtés par les nazis et envoyés à la mort. Parmi eux, trois enfants d'une même famille.
 </t>
         </is>
       </c>
